--- a/DATA_DICTS/harmonized_data_dictionary.xlsx
+++ b/DATA_DICTS/harmonized_data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mayleencortez/GitHub/rgai_summer2025/DATA_DICTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43A1788-AB45-D045-BECE-CD51BCA83871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A1CF5C-2454-5C4D-B1CC-C0AF5CDAFBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8220" uniqueCount="1218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8226" uniqueCount="1218">
   <si>
     <t>Variable Name</t>
   </si>
@@ -4098,15 +4098,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="90.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4728,10 +4728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B828210-5F04-1E49-B86C-1F8FACCA811D}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4740,7 +4740,7 @@
     <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -4764,61 +4764,85 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="3" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1217</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{AE28A0F0-0D3A-2D48-B9D9-6904D2C2AA5F}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{CA63819E-2A18-7449-A1BD-BEDCDC477911}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{3506037D-D4A5-6C44-B7A2-585BF87650F8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4826,8 +4850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A1338F-4830-4921-8676-6AB723C90E5E}">
   <dimension ref="A1:G1101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4835,7 +4859,7 @@
     <col min="1" max="1" width="35.33203125" customWidth="1"/>
     <col min="2" max="2" width="97" style="2" customWidth="1"/>
     <col min="3" max="3" width="40.5" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.83203125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
